--- a/data_item.xlsx
+++ b/data_item.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>미합중국</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>NH증권</t>
@@ -523,11 +527,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>44444</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+          <t>221240144(미합)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>JEPI</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>JPY</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -537,18 +549,49 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>45555</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>미래에셋</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3245-55(민국)</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5555</t>
+          <t>SCHD</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5555</t>
+          <t>SCJHSHH</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>러시아</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>삼성증권</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>7788(러아)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>QQQ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>QQQ</t>
         </is>
       </c>
     </row>
